--- a/station list/HighTideOutlookStationList_05_17_23_PAC_SLT.xlsx
+++ b/station list/HighTideOutlookStationList_05_17_23_PAC_SLT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\high_tide_flooding\Seasonal_High_Tide_Flooding_Prediction\station list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689FC928-9606-4CAD-A76A-0714C7099938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EADD35-82C6-4C87-8C87-E1128E159D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -844,7 +844,7 @@
   <dimension ref="A1:J113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F12"/>
+      <selection activeCell="F3" sqref="F3:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -906,7 +906,7 @@
         <v>89</v>
       </c>
       <c r="F2" s="8">
-        <v>0.30231999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G2" s="9">
         <v>1.9596</v>
@@ -938,7 +938,7 @@
         <v>89</v>
       </c>
       <c r="F3" s="8">
-        <v>0.30320000000000003</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G3" s="9">
         <v>1.7514000000000001</v>
@@ -970,7 +970,7 @@
         <v>89</v>
       </c>
       <c r="F4" s="8">
-        <v>0.30584</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G4" s="9">
         <v>2.2496999999999998</v>
@@ -1002,7 +1002,7 @@
         <v>89</v>
       </c>
       <c r="F5" s="8">
-        <v>0.30743999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G5" s="9">
         <v>2.1741000000000001</v>
@@ -1034,7 +1034,7 @@
         <v>89</v>
       </c>
       <c r="F6" s="8">
-        <v>0.30584</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G6" s="9">
         <v>3.5097</v>
@@ -1066,7 +1066,7 @@
         <v>89</v>
       </c>
       <c r="F7" s="8">
-        <v>0.30924000000000001</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G7" s="9">
         <v>2.5768</v>
@@ -1098,7 +1098,7 @@
         <v>89</v>
       </c>
       <c r="F8" s="8">
-        <v>0.29524</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G8" s="9">
         <v>3.5556000000000001</v>
@@ -1130,7 +1130,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="8">
-        <v>0.30859999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G9" s="13">
         <v>5.0106000000000002</v>
@@ -1162,7 +1162,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="8">
-        <v>0.31391999999999998</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G10" s="9">
         <v>20.1035</v>
@@ -1194,7 +1194,7 @@
         <v>89</v>
       </c>
       <c r="F11" s="8">
-        <v>0.32776</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G11" s="9">
         <v>3.2799</v>
@@ -1226,7 +1226,7 @@
         <v>89</v>
       </c>
       <c r="F12" s="8">
-        <v>0.30871999999999999</v>
+        <v>0.30399999999999999</v>
       </c>
       <c r="G12" s="9">
         <v>2.4735999999999998</v>
@@ -1322,7 +1322,7 @@
         <v>0.6803866097560971</v>
       </c>
       <c r="F15" s="8">
-        <v>0.62522356000000023</v>
+        <v>0.62522356000000001</v>
       </c>
       <c r="G15" s="9">
         <v>3.4363999999999999</v>
